--- a/results/I3_N5_M3_T45_C100_DepCentral_s3_P6_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>774.2165224855281</v>
+        <v>483.5118171894032</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01099991798400879</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.927753753884003e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.24652248552367</v>
+        <v>29.51181718940319</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.013903348450926</v>
+        <v>8.981385860719614</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.013903348450926</v>
+        <v>8.981385860719614</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>385.8800000000044</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.09</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,9 +587,97 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -758,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -893,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.35722294236248</v>
+        <v>32.5321137415211</v>
       </c>
     </row>
     <row r="5">
@@ -909,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.792790664040517</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.752940659556295</v>
+        <v>5.70238675931963</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.24705934044371</v>
+        <v>37.42195013960233</v>
       </c>
     </row>
     <row r="9">
@@ -941,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>39.20720933595948</v>
+        <v>39.29761324068037</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,9 +1081,121 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>109.6299999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>112.9099999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>116.4249999999999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>112.6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -1142,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>112.8249999999999</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1153,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>122.0400000000005</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
@@ -1164,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>129.3250000000005</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
@@ -1175,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>115.7400000000005</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -1186,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>131.6100000000005</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1197,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>129.8350000000005</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1219,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1230,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1241,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1252,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1263,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1274,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1285,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1296,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1307,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1318,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>36.35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
@@ -1329,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>32.46500000000073</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>34.61000000000072</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1351,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>41.73500000000072</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31">
@@ -1362,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.29500000000073</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32">
@@ -1373,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>122.0400000000005</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1384,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>129.3250000000005</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34">
@@ -1395,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>115.7400000000005</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
@@ -1406,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>131.6100000000005</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1417,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>129.8350000000005</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -1428,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>45.6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1439,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>38.72499999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1450,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>42.39499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1461,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>38.17499999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1472,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>41.26499999999986</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1483,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>109.6299999999999</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -1494,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>112.9099999999999</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -1505,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>116.4249999999999</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -1516,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>112.6</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -1527,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>112.8249999999999</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1574,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.04000000000052</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>29.32500000000053</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1596,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>15.74000000000051</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1607,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>31.6100000000005</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1618,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>29.83500000000049</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -1684,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.629999999999924</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1695,7 +1895,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>12.90999999999993</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -1706,7 +1906,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>16.42499999999993</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -1717,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1728,7 +1928,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>12.82499999999992</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1775,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1786,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1797,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1808,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1819,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1951,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1962,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1973,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1984,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1995,7 +2195,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>9.625</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -2006,7 +2206,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>12.98</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -2017,7 +2217,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -2028,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>13.585</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26">
@@ -2039,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>8.205</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
